--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsizo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsizo\PycharmProjects\GTP-J\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927BA0CB-7D1A-4619-B662-1A774DEB4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA8AF2C-CB73-4F68-BE04-BA2E64432EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>0.5*C2+0.2*2*D2+0.2*E2+0.1*F2</f>
+        <f>0.5*C2+0.2*D2+0.2*E2+0.1*F2</f>
         <v>0</v>
       </c>
     </row>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G39" si="0">0.5*C3+0.2*2*D3+0.2*E3+0.1*F3</f>
+        <f t="shared" ref="G3:G39" si="0">0.5*C3+0.2*D3+0.2*E3+0.1*F3</f>
         <v>1.6</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>3</v>
